--- a/Teams/Liverpool_stats.xlsx
+++ b/Teams/Liverpool_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-255</t>
+          <t>33-256</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-278</t>
+          <t>32-279</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-308</t>
+          <t>22-309</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-164</t>
+          <t>26-165</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-086</t>
+          <t>26-087</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31-009</t>
+          <t>31-010</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24-146</t>
+          <t>24-147</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28-066</t>
+          <t>28-067</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-169</t>
+          <t>32-170</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-317</t>
+          <t>25-318</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-049</t>
+          <t>24-050</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-107</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26-117</t>
+          <t>26-118</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-312</t>
+          <t>28-313</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-255</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-050</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-350</t>
+          <t>21-351</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27-146</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-240</t>
+          <t>23-241</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-064</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-255</t>
+          <t>33-256</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-278</t>
+          <t>32-279</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-308</t>
+          <t>22-309</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-164</t>
+          <t>26-165</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-086</t>
+          <t>26-087</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31-009</t>
+          <t>31-010</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24-146</t>
+          <t>24-147</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28-066</t>
+          <t>28-067</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-169</t>
+          <t>32-170</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-317</t>
+          <t>25-318</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-049</t>
+          <t>24-050</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-107</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26-117</t>
+          <t>26-118</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -9750,7 +9750,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-312</t>
+          <t>28-313</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9984,7 +9984,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-255</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-050</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -10218,7 +10218,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-350</t>
+          <t>21-351</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27-146</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-240</t>
+          <t>23-241</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-064</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-198</t>
+          <t>21-199</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-188</t>
+          <t>20-189</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-140</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-122</t>
+          <t>18-123</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-263</t>
+          <t>17-264</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -11530,7 +11530,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-255</t>
+          <t>33-256</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-278</t>
+          <t>32-279</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-308</t>
+          <t>22-309</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-164</t>
+          <t>26-165</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-086</t>
+          <t>26-087</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31-009</t>
+          <t>31-010</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24-146</t>
+          <t>24-147</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12118,7 +12118,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28-066</t>
+          <t>28-067</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-169</t>
+          <t>32-170</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-317</t>
+          <t>25-318</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-049</t>
+          <t>24-050</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-107</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26-117</t>
+          <t>26-118</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-312</t>
+          <t>28-313</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-255</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-050</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-350</t>
+          <t>21-351</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13254,7 +13254,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27-146</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13338,7 +13338,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-240</t>
+          <t>23-241</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-064</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-255</t>
+          <t>33-256</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-278</t>
+          <t>32-279</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-308</t>
+          <t>22-309</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-164</t>
+          <t>26-165</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -14313,7 +14313,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-086</t>
+          <t>26-087</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -14415,7 +14415,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31-009</t>
+          <t>31-010</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24-146</t>
+          <t>24-147</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -14619,7 +14619,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28-066</t>
+          <t>28-067</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-169</t>
+          <t>32-170</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-317</t>
+          <t>25-318</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -15027,7 +15027,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-049</t>
+          <t>24-050</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-107</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26-117</t>
+          <t>26-118</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -15435,7 +15435,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-312</t>
+          <t>28-313</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -15639,7 +15639,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-255</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -15741,7 +15741,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-050</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-350</t>
+          <t>21-351</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -16047,7 +16047,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27-146</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-240</t>
+          <t>23-241</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -16249,7 +16249,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-064</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-255</t>
+          <t>33-256</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-278</t>
+          <t>32-279</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -16881,7 +16881,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-308</t>
+          <t>22-309</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -16959,7 +16959,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-164</t>
+          <t>26-165</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -17037,7 +17037,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-086</t>
+          <t>26-087</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -17115,7 +17115,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31-009</t>
+          <t>31-010</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -17193,7 +17193,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24-146</t>
+          <t>24-147</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -17271,7 +17271,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28-066</t>
+          <t>28-067</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-169</t>
+          <t>32-170</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -17505,7 +17505,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-317</t>
+          <t>25-318</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-049</t>
+          <t>24-050</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -17661,7 +17661,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-107</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -17739,7 +17739,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26-117</t>
+          <t>26-118</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -17895,7 +17895,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-312</t>
+          <t>28-313</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -18051,7 +18051,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-255</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -18129,7 +18129,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-050</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-350</t>
+          <t>21-351</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27-146</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -18441,7 +18441,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-240</t>
+          <t>23-241</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -18519,7 +18519,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-064</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18931,7 +18931,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-255</t>
+          <t>33-256</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19012,7 +19012,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-278</t>
+          <t>32-279</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19093,7 +19093,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-308</t>
+          <t>22-309</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19174,7 +19174,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-164</t>
+          <t>26-165</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19255,7 +19255,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-086</t>
+          <t>26-087</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31-009</t>
+          <t>31-010</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24-146</t>
+          <t>24-147</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -19498,7 +19498,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -19579,7 +19579,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28-066</t>
+          <t>28-067</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-169</t>
+          <t>32-170</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-317</t>
+          <t>25-318</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -19822,7 +19822,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-049</t>
+          <t>24-050</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19903,7 +19903,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-107</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19984,7 +19984,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20065,7 +20065,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26-117</t>
+          <t>26-118</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -20146,7 +20146,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -20227,7 +20227,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-312</t>
+          <t>28-313</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20308,7 +20308,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-255</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-050</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-350</t>
+          <t>21-351</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27-146</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -20713,7 +20713,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-240</t>
+          <t>23-241</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -20794,7 +20794,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-064</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-255</t>
+          <t>33-256</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -21309,7 +21309,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-278</t>
+          <t>32-279</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-308</t>
+          <t>22-309</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-164</t>
+          <t>26-165</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -21552,7 +21552,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-086</t>
+          <t>26-087</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -21633,7 +21633,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31-009</t>
+          <t>31-010</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -21714,7 +21714,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24-146</t>
+          <t>24-147</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -21795,7 +21795,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -21876,7 +21876,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28-066</t>
+          <t>28-067</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21957,7 +21957,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-169</t>
+          <t>32-170</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -22038,7 +22038,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-317</t>
+          <t>25-318</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -22119,7 +22119,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-049</t>
+          <t>24-050</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -22200,7 +22200,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-107</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -22281,7 +22281,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -22362,7 +22362,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26-117</t>
+          <t>26-118</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -22522,7 +22522,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-312</t>
+          <t>28-313</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -22603,7 +22603,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-255</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-050</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22846,7 +22846,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-350</t>
+          <t>21-351</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27-146</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-240</t>
+          <t>23-241</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -23087,7 +23087,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-064</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -23544,7 +23544,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-255</t>
+          <t>33-256</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -23643,7 +23643,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-278</t>
+          <t>32-279</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -23742,7 +23742,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-308</t>
+          <t>22-309</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -23841,7 +23841,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-164</t>
+          <t>26-165</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -23940,7 +23940,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-086</t>
+          <t>26-087</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -24039,7 +24039,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31-009</t>
+          <t>31-010</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24-146</t>
+          <t>24-147</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -24237,7 +24237,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -24336,7 +24336,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28-066</t>
+          <t>28-067</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -24435,7 +24435,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-169</t>
+          <t>32-170</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -24534,7 +24534,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-317</t>
+          <t>25-318</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -24633,7 +24633,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-049</t>
+          <t>24-050</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -24732,7 +24732,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-107</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -24831,7 +24831,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26-117</t>
+          <t>26-118</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -25029,7 +25029,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -25124,7 +25124,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-312</t>
+          <t>28-313</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -25223,7 +25223,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-255</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -25322,7 +25322,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-050</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -25421,7 +25421,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -25520,7 +25520,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-350</t>
+          <t>21-351</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -25619,7 +25619,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27-146</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -25718,7 +25718,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-240</t>
+          <t>23-241</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -25813,7 +25813,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-064</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -26357,7 +26357,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-255</t>
+          <t>33-256</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-278</t>
+          <t>32-279</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -26591,7 +26591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-308</t>
+          <t>22-309</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-164</t>
+          <t>26-165</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -26825,7 +26825,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-086</t>
+          <t>26-087</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -26942,7 +26942,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31-009</t>
+          <t>31-010</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -27059,7 +27059,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24-146</t>
+          <t>24-147</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -27176,7 +27176,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -27293,7 +27293,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28-066</t>
+          <t>28-067</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -27410,7 +27410,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-169</t>
+          <t>32-170</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -27527,7 +27527,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-317</t>
+          <t>25-318</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -27644,7 +27644,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24-049</t>
+          <t>24-050</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-107</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -27878,7 +27878,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -27995,7 +27995,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26-117</t>
+          <t>26-118</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -28112,7 +28112,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-301</t>
+          <t>27-302</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -28229,7 +28229,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-312</t>
+          <t>28-313</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -28346,7 +28346,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-255</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -28463,7 +28463,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-050</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -28580,7 +28580,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32-039</t>
+          <t>32-040</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -28697,7 +28697,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-350</t>
+          <t>21-351</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -28814,7 +28814,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27-146</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -28931,7 +28931,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-240</t>
+          <t>23-241</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -29048,7 +29048,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-064</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -29165,7 +29165,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-198</t>
+          <t>21-199</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -29228,7 +29228,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-188</t>
+          <t>20-189</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-140</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -29354,7 +29354,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-122</t>
+          <t>18-123</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -29417,7 +29417,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-263</t>
+          <t>17-264</t>
         </is>
       </c>
       <c r="F32" t="n">

--- a/Teams/Liverpool_stats.xlsx
+++ b/Teams/Liverpool_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4280,7 +4280,9 @@
       <c r="N47" t="n">
         <v>46</v>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>59765</v>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Virgil van Dijk</t>
@@ -4328,7 +4330,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4631,12 +4633,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4651,7 +4653,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4994,7 +4996,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-259</t>
+          <t>33-262</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -5065,7 +5067,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-282</t>
+          <t>32-285</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -5136,7 +5138,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-312</t>
+          <t>22-315</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -5207,7 +5209,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-168</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -5278,7 +5280,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-090</t>
+          <t>26-093</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -5349,7 +5351,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-016</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -5420,7 +5422,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24-150</t>
+          <t>24-153</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -5491,7 +5493,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-303</t>
+          <t>25-306</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -5562,7 +5564,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-073</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -5633,7 +5635,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-173</t>
+          <t>32-176</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -5704,7 +5706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-321</t>
+          <t>25-324</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5775,7 +5777,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-053</t>
+          <t>24-056</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5846,7 +5848,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-110</t>
+          <t>28-113</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5917,7 +5919,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5988,7 +5990,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26-121</t>
+          <t>26-124</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -6059,7 +6061,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -6130,7 +6132,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-316</t>
+          <t>28-319</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -6201,7 +6203,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-258</t>
+          <t>21-261</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -6272,7 +6274,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-054</t>
+          <t>22-057</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -6343,7 +6345,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -6414,7 +6416,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-354</t>
+          <t>21-357</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -6485,7 +6487,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27-150</t>
+          <t>27-153</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -6554,7 +6556,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-244</t>
+          <t>23-247</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -6623,7 +6625,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -6839,12 +6841,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -7068,7 +7070,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-259</t>
+          <t>33-262</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -7175,7 +7177,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-282</t>
+          <t>32-285</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -7282,7 +7284,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-312</t>
+          <t>22-315</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -7389,7 +7391,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-168</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -7496,7 +7498,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-090</t>
+          <t>26-093</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -7603,7 +7605,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-016</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -7710,7 +7712,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24-150</t>
+          <t>24-153</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7817,7 +7819,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-303</t>
+          <t>25-306</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7924,7 +7926,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-073</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -8031,7 +8033,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-173</t>
+          <t>32-176</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8138,7 +8140,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-321</t>
+          <t>25-324</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -8245,7 +8247,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-053</t>
+          <t>24-056</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8352,7 +8354,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-110</t>
+          <t>28-113</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -8459,7 +8461,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8566,7 +8568,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26-121</t>
+          <t>26-124</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -8673,7 +8675,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8780,7 +8782,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-316</t>
+          <t>28-319</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8887,7 +8889,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-258</t>
+          <t>21-261</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8994,7 +8996,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-054</t>
+          <t>22-057</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -9101,7 +9103,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -9208,7 +9210,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-354</t>
+          <t>21-357</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -9315,7 +9317,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27-150</t>
+          <t>27-153</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -9422,7 +9424,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-244</t>
+          <t>23-247</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -9529,7 +9531,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -9636,7 +9638,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-202</t>
+          <t>21-205</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -9689,7 +9691,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-192</t>
+          <t>20-195</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9742,7 +9744,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-144</t>
+          <t>22-147</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9795,7 +9797,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-126</t>
+          <t>18-129</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9848,7 +9850,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-267</t>
+          <t>17-270</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -10093,10 +10095,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
@@ -10274,7 +10276,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-259</t>
+          <t>33-262</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10348,7 +10350,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-282</t>
+          <t>32-285</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10422,7 +10424,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-312</t>
+          <t>22-315</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10496,7 +10498,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-168</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10570,7 +10572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-090</t>
+          <t>26-093</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10644,7 +10646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-016</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10718,7 +10720,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24-150</t>
+          <t>24-153</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10792,7 +10794,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-303</t>
+          <t>25-306</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10866,7 +10868,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-073</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10940,7 +10942,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-173</t>
+          <t>32-176</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11004,7 +11006,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-321</t>
+          <t>25-324</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11078,7 +11080,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-053</t>
+          <t>24-056</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11152,7 +11154,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-110</t>
+          <t>28-113</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11226,7 +11228,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11300,7 +11302,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26-121</t>
+          <t>26-124</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11364,7 +11366,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11438,7 +11440,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-316</t>
+          <t>28-319</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11512,7 +11514,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-258</t>
+          <t>21-261</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11586,7 +11588,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-054</t>
+          <t>22-057</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11650,7 +11652,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11714,7 +11716,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-354</t>
+          <t>21-357</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11788,7 +11790,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27-150</t>
+          <t>27-153</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11862,7 +11864,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-244</t>
+          <t>23-247</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11926,7 +11928,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -12342,7 +12344,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-259</t>
+          <t>33-262</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12434,7 +12436,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-282</t>
+          <t>32-285</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12526,7 +12528,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-312</t>
+          <t>22-315</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12618,7 +12620,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-168</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12710,7 +12712,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-090</t>
+          <t>26-093</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12802,7 +12804,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-016</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12894,7 +12896,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24-150</t>
+          <t>24-153</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12986,7 +12988,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-303</t>
+          <t>25-306</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13078,7 +13080,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-073</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13170,7 +13172,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-173</t>
+          <t>32-176</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13262,7 +13264,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-321</t>
+          <t>25-324</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13354,7 +13356,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-053</t>
+          <t>24-056</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13446,7 +13448,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-110</t>
+          <t>28-113</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13538,7 +13540,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13630,7 +13632,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26-121</t>
+          <t>26-124</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13722,7 +13724,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13814,7 +13816,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-316</t>
+          <t>28-319</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13906,7 +13908,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-258</t>
+          <t>21-261</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13998,7 +14000,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-054</t>
+          <t>22-057</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14090,7 +14092,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14182,7 +14184,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-354</t>
+          <t>21-357</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -14274,7 +14276,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27-150</t>
+          <t>27-153</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -14366,7 +14368,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-244</t>
+          <t>23-247</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -14456,7 +14458,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -14879,7 +14881,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-259</t>
+          <t>33-262</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14947,7 +14949,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-282</t>
+          <t>32-285</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15015,7 +15017,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-312</t>
+          <t>22-315</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15083,7 +15085,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-168</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15151,7 +15153,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-090</t>
+          <t>26-093</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15219,7 +15221,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-016</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15287,7 +15289,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24-150</t>
+          <t>24-153</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15355,7 +15357,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-303</t>
+          <t>25-306</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15423,7 +15425,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-073</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15491,7 +15493,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-173</t>
+          <t>32-176</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15559,7 +15561,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-321</t>
+          <t>25-324</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15627,7 +15629,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-053</t>
+          <t>24-056</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15695,7 +15697,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-110</t>
+          <t>28-113</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15763,7 +15765,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15831,7 +15833,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26-121</t>
+          <t>26-124</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15899,7 +15901,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15967,7 +15969,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-316</t>
+          <t>28-319</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16035,7 +16037,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-258</t>
+          <t>21-261</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16103,7 +16105,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-054</t>
+          <t>22-057</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16171,7 +16173,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16239,7 +16241,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-354</t>
+          <t>21-357</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16307,7 +16309,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27-150</t>
+          <t>27-153</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16375,7 +16377,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-244</t>
+          <t>23-247</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16443,7 +16445,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16806,7 +16808,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-259</t>
+          <t>33-262</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16877,7 +16879,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-282</t>
+          <t>32-285</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16948,7 +16950,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-312</t>
+          <t>22-315</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17019,7 +17021,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-168</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17090,7 +17092,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-090</t>
+          <t>26-093</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17161,7 +17163,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-016</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17232,7 +17234,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24-150</t>
+          <t>24-153</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17303,7 +17305,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-303</t>
+          <t>25-306</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17374,7 +17376,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-073</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17445,7 +17447,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-173</t>
+          <t>32-176</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17516,7 +17518,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-321</t>
+          <t>25-324</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17587,7 +17589,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-053</t>
+          <t>24-056</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17658,7 +17660,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-110</t>
+          <t>28-113</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17729,7 +17731,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17800,7 +17802,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26-121</t>
+          <t>26-124</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17871,7 +17873,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17942,7 +17944,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-316</t>
+          <t>28-319</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18013,7 +18015,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-258</t>
+          <t>21-261</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18084,7 +18086,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-054</t>
+          <t>22-057</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18155,7 +18157,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18226,7 +18228,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-354</t>
+          <t>21-357</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18297,7 +18299,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27-150</t>
+          <t>27-153</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18368,7 +18370,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-244</t>
+          <t>23-247</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18439,7 +18441,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -18808,7 +18810,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-259</t>
+          <t>33-262</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18879,7 +18881,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-282</t>
+          <t>32-285</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18950,7 +18952,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-312</t>
+          <t>22-315</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19021,7 +19023,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-168</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19092,7 +19094,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-090</t>
+          <t>26-093</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -19163,7 +19165,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-016</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19234,7 +19236,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24-150</t>
+          <t>24-153</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19305,7 +19307,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-303</t>
+          <t>25-306</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19376,7 +19378,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-073</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19447,7 +19449,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-173</t>
+          <t>32-176</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -19518,7 +19520,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-321</t>
+          <t>25-324</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -19589,7 +19591,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-053</t>
+          <t>24-056</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -19660,7 +19662,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-110</t>
+          <t>28-113</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -19731,7 +19733,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19802,7 +19804,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26-121</t>
+          <t>26-124</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19871,7 +19873,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19942,7 +19944,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-316</t>
+          <t>28-319</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20013,7 +20015,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-258</t>
+          <t>21-261</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20084,7 +20086,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-054</t>
+          <t>22-057</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20155,7 +20157,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20226,7 +20228,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-354</t>
+          <t>21-357</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -20297,7 +20299,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27-150</t>
+          <t>27-153</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20368,7 +20370,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-244</t>
+          <t>23-247</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20437,7 +20439,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20845,7 +20847,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-259</t>
+          <t>33-262</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -20934,7 +20936,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-282</t>
+          <t>32-285</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21023,7 +21025,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-312</t>
+          <t>22-315</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21112,7 +21114,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-168</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21201,7 +21203,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-090</t>
+          <t>26-093</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21290,7 +21292,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-016</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21379,7 +21381,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24-150</t>
+          <t>24-153</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21468,7 +21470,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-303</t>
+          <t>25-306</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -21557,7 +21559,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-073</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -21646,7 +21648,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-173</t>
+          <t>32-176</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -21735,7 +21737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-321</t>
+          <t>25-324</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -21824,7 +21826,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-053</t>
+          <t>24-056</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -21913,7 +21915,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-110</t>
+          <t>28-113</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -22002,7 +22004,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -22091,7 +22093,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26-121</t>
+          <t>26-124</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -22180,7 +22182,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22265,7 +22267,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-316</t>
+          <t>28-319</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22354,7 +22356,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-258</t>
+          <t>21-261</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -22443,7 +22445,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-054</t>
+          <t>22-057</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -22532,7 +22534,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -22621,7 +22623,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-354</t>
+          <t>21-357</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -22710,7 +22712,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27-150</t>
+          <t>27-153</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22799,7 +22801,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-244</t>
+          <t>23-247</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -22884,7 +22886,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -23154,12 +23156,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -23383,7 +23385,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-259</t>
+          <t>33-262</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -23490,7 +23492,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-282</t>
+          <t>32-285</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -23597,7 +23599,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-312</t>
+          <t>22-315</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -23704,7 +23706,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-168</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -23811,7 +23813,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-090</t>
+          <t>26-093</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -23918,7 +23920,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-016</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -24025,7 +24027,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24-150</t>
+          <t>24-153</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -24132,7 +24134,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25-303</t>
+          <t>25-306</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -24239,7 +24241,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-073</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -24346,7 +24348,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-173</t>
+          <t>32-176</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -24453,7 +24455,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-321</t>
+          <t>25-324</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -24560,7 +24562,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24-053</t>
+          <t>24-056</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -24667,7 +24669,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-110</t>
+          <t>28-113</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -24774,7 +24776,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -24881,7 +24883,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>26-121</t>
+          <t>26-124</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -24988,7 +24990,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-305</t>
+          <t>27-308</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -25095,7 +25097,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-316</t>
+          <t>28-319</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -25202,7 +25204,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-258</t>
+          <t>21-261</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -25309,7 +25311,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-054</t>
+          <t>22-057</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -25416,7 +25418,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32-043</t>
+          <t>32-046</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -25523,7 +25525,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-354</t>
+          <t>21-357</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -25630,7 +25632,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27-150</t>
+          <t>27-153</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -25737,7 +25739,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-244</t>
+          <t>23-247</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -25844,7 +25846,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -25951,7 +25953,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-202</t>
+          <t>21-205</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -26004,7 +26006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-192</t>
+          <t>20-195</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -26057,7 +26059,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-144</t>
+          <t>22-147</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -26110,7 +26112,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-126</t>
+          <t>18-129</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -26163,7 +26165,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-267</t>
+          <t>17-270</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -26408,10 +26410,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
